--- a/pred_ohlcv/54_21/2020-01-12 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 OGO ohlcv.xlsx
@@ -1666,7 +1666,7 @@
         <v>1072670.948638404</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1072670.948638404</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1134353.348238404</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1106012.148238404</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1064977.138238404</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1134894.361038404</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1139784.807838404</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1139784.807838404</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1182462.522438404</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1178066.490538404</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>957152.386538404</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>978359.386538404</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>977836.2290384041</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>814905.853638404</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>814905.853638404</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>716973.662738404</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>719421.115338404</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>719421.115338404</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>735095.115338404</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>808470.115338404</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-510307.0818034045</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-511967.4033034045</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-504185.5693034045</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-499750.4919034045</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-499750.4919034045</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-484750.4919034045</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-526070.0171034045</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-526070.0171034045</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-395415.2523034045</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-497725.8555034045</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-497725.8555034045</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-517788.3001034045</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 OGO ohlcv.xlsx
@@ -1666,7 +1666,7 @@
         <v>1072670.948638404</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1072670.948638404</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1134353.348238404</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1106012.148238404</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1064977.138238404</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1134894.361038404</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1139784.807838404</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1139784.807838404</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1182462.522438404</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1178066.490538404</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>978359.386538404</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>977836.2290384041</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>814905.853638404</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>814905.853638404</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>716973.662738404</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>719421.115338404</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>719421.115338404</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>735095.115338404</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>808470.115338404</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-510307.0818034045</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-511145.4018034045</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-511967.4033034045</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-504185.5693034045</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-502317.5693034045</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-499750.4919034045</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-499750.4919034045</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-484750.4919034045</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-510396.0171034045</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-526070.0171034045</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-526070.0171034045</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-395415.2523034045</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-331983.3155034045</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-338043.3155034045</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-497725.8555034045</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-497725.8555034045</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-517788.3001034045</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
